--- a/MyProject/test.xlsx
+++ b/MyProject/test.xlsx
@@ -99,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -312,6 +312,12 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -346,7 +352,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>

--- a/MyProject/test.xlsx
+++ b/MyProject/test.xlsx
@@ -424,33 +424,36 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>67.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>86.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>858.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>97.0</v>
+        <v>0.0</v>
       </c>
       <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -459,34 +462,37 @@
         <v>2.0</v>
       </c>
       <c r="B6" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="C6" t="n">
-        <v>98.0</v>
+        <v>10.0</v>
       </c>
       <c r="D6" t="n">
-        <v>87.0</v>
+        <v>1500.0</v>
       </c>
       <c r="E6" t="n">
-        <v>76.0</v>
+        <v>100000.0</v>
       </c>
       <c r="F6" t="n">
-        <v>65.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" t="n">
-        <v>45.0</v>
+        <v>10.0</v>
       </c>
       <c r="H6" t="n">
-        <v>43.0</v>
+        <v>10.0</v>
       </c>
       <c r="I6" t="n">
-        <v>32.0</v>
+        <v>80.0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>100100.0</v>
       </c>
     </row>
   </sheetData>

--- a/MyProject/test.xlsx
+++ b/MyProject/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>test</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>SGST</t>
   </si>
 </sst>
 </file>
@@ -58,13 +70,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -323,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -353,13 +370,15 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:L6"/>
+  <dimension ref="A3:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -420,79 +439,95 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="n" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="C5" t="n" s="9">
+        <v>1500.0</v>
+      </c>
+      <c r="D5" t="n" s="9">
         <v>0.0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n" s="9">
         <v>0.0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="G5" t="n" s="9">
+        <v>250.0</v>
+      </c>
+      <c r="H5" t="n" s="9">
         <v>0.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n" s="9">
         <v>0.0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>100100.0</v>
+      <c r="J5" t="n" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="K5" t="n" s="9">
+        <v>250.0</v>
+      </c>
+      <c r="L5" t="n" s="9">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="10">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/MyProject/test.xlsx
+++ b/MyProject/test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>test</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>SGST</t>
+  </si>
+  <si>
+    <t>IGST-TOTAl</t>
+  </si>
+  <si>
+    <t>IGST</t>
   </si>
 </sst>
 </file>
@@ -106,15 +112,25 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -174,40 +190,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,26 +506,29 @@
   <dimension ref="A3:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -570,38 +572,38 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
       <c r="C5" s="2">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="2">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="2">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>6500</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L5" s="2">
-        <v>8500</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -609,296 +611,298 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3">
+        <v>100</v>
+      </c>
+      <c r="L6" s="3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="3">
-        <v>15000</v>
-      </c>
-      <c r="K6" s="3">
-        <v>36900</v>
-      </c>
-      <c r="L6" s="3">
-        <v>36900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="L7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
-        <v>1500</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2400</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1300</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>100</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6">
+        <f>SUM(B5:B7)-[1]!SumYellowCells(B5:B7)</f>
+        <v>200</v>
+      </c>
+      <c r="C10" s="6">
+        <f>SUM(C5:C7)-[1]!SumYellowCells(C5:C7)</f>
+        <v>110</v>
+      </c>
+      <c r="D10" s="6">
+        <f>SUM(D5:D7)-[1]!SumYellowCells(D5:D7)</f>
         <v>1000</v>
       </c>
-      <c r="L7" s="6">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1500</v>
-      </c>
-      <c r="C8" s="4">
-        <v>6000</v>
-      </c>
-      <c r="D8" s="4">
-        <v>500</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1250</v>
-      </c>
-      <c r="F8" s="4">
-        <v>7650</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1200</v>
-      </c>
-      <c r="H8" s="4">
-        <v>12630</v>
-      </c>
-      <c r="I8" s="4">
-        <v>12630</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>21080</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>500</v>
-      </c>
-      <c r="K9" s="5">
-        <v>250</v>
-      </c>
-      <c r="L9" s="5">
-        <v>250</v>
+      <c r="E10" s="6">
+        <f>SUM(E5:E7)-[1]!SumYellowCells(E5:E7)</f>
+        <v>100</v>
+      </c>
+      <c r="F10" s="6">
+        <f>SUM(F5:F7)-[1]!SumYellowCells(F5:F7)</f>
+        <v>10000</v>
+      </c>
+      <c r="G10" s="6">
+        <f>SUM(G5:G7)-[1]!SumYellowCells(G5:G7)</f>
+        <v>1000</v>
+      </c>
+      <c r="H10" s="6">
+        <f>SUM(H5:H7)-[1]!SumYellowCells(H5:H7)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <f>SUM(I5:I7)-[1]!SumYellowCells(I5:I7)</f>
+        <v>10</v>
+      </c>
+      <c r="J10" s="6">
+        <f>SUM(J5:J7)-[1]!SumYellowCells(J5:J7)</f>
+        <v>10</v>
+      </c>
+      <c r="K10" s="6">
+        <f>SUM(K5:K7)-[1]!SumYellowCells(K5:K7)</f>
+        <v>100</v>
+      </c>
+      <c r="L10" s="6">
+        <f>SUM(L5:L7)-[1]!SumYellowCells(L5:L7)</f>
+        <v>1320</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6">
+        <f>(SUM(C5:C7)-[1]!SumYellowCells(C5:C7))*0.09</f>
+        <v>9.9</v>
+      </c>
+      <c r="E11" s="6">
+        <f>(SUM(E5:E7)-[1]!SumYellowCells(E5:E7))*0.09</f>
         <v>9</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>12</v>
+      <c r="G11" s="6">
+        <f>(SUM(G5:G7)-[1]!SumYellowCells(G5:G7))*0.09</f>
+        <v>90</v>
+      </c>
+      <c r="I11" s="6">
+        <f>(SUM(I5:I7)-[1]!SumYellowCells(I5:I7))*0.09</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K11" s="6">
+        <f>(SUM(K5:K7)-[1]!SumYellowCells(K5:K7))*0.09</f>
+        <v>9</v>
+      </c>
+      <c r="L11" s="6">
+        <f>(SUM(L5:L7)-[1]!SumYellowCells(L5:L7))*0.09</f>
+        <v>118.8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8">
-        <f>SUM(B5:B9)-[1]!SumYellowCells(B5:B9)</f>
-        <v>3100</v>
-      </c>
-      <c r="C12" s="8">
-        <f>SUM(C5:C9)-[1]!SumYellowCells(C5:C9)</f>
-        <v>8900</v>
-      </c>
-      <c r="D12" s="8">
-        <f>SUM(D5:D9)-[1]!SumYellowCells(D5:D9)</f>
-        <v>1820</v>
-      </c>
-      <c r="E12" s="8">
-        <f>SUM(E5:E9)-[1]!SumYellowCells(E5:E9)</f>
-        <v>4750</v>
-      </c>
-      <c r="F12" s="8">
-        <f>SUM(F5:F9)-[1]!SumYellowCells(F5:F9)</f>
-        <v>7650</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUM(G5:G9)-[1]!SumYellowCells(G5:G9)</f>
-        <v>1200</v>
-      </c>
-      <c r="H12" s="8">
-        <f>SUM(H5:H9)-[1]!SumYellowCells(H5:H9)</f>
-        <v>16630</v>
-      </c>
-      <c r="I12" s="8">
-        <f>SUM(I5:I9)-[1]!SumYellowCells(I5:I9)</f>
-        <v>19130</v>
-      </c>
-      <c r="J12" s="8">
-        <f>SUM(J5:J9)-[1]!SumYellowCells(J5:J9)</f>
-        <v>15600</v>
-      </c>
-      <c r="K12" s="8">
-        <f>SUM(K5:K9)-[1]!SumYellowCells(K5:K9)</f>
-        <v>38150</v>
-      </c>
-      <c r="L12" s="8">
-        <f>SUM(L5:L9)-[1]!SumYellowCells(L5:L9)</f>
-        <v>72130</v>
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6">
+        <f>(SUM(C5:C7)-[1]!SumYellowCells(C5:C7))*0.09</f>
+        <v>9.9</v>
+      </c>
+      <c r="E12" s="6">
+        <f>(SUM(E5:E7)-[1]!SumYellowCells(E5:E7))*0.09</f>
+        <v>9</v>
+      </c>
+      <c r="G12" s="6">
+        <f>(SUM(G5:G7)-[1]!SumYellowCells(G5:G7))*0.09</f>
+        <v>90</v>
+      </c>
+      <c r="I12" s="6">
+        <f>(SUM(I5:I7)-[1]!SumYellowCells(I5:I7))*0.09</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K12" s="6">
+        <f>(SUM(K5:K7)-[1]!SumYellowCells(K5:K7))*0.09</f>
+        <v>9</v>
+      </c>
+      <c r="L12" s="6">
+        <f>(SUM(L5:L7)-[1]!SumYellowCells(L5:L7))*0.09</f>
+        <v>118.8</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8">
-        <f>(SUM(C5:C9)-[1]!SumYellowCells(C5:C9))*0.09</f>
-        <v>801</v>
-      </c>
-      <c r="E13" s="8">
-        <f>(SUM(E5:E9)-[1]!SumYellowCells(E5:E9))*0.09</f>
-        <v>427.5</v>
-      </c>
-      <c r="G13" s="8">
-        <f>(SUM(G5:G9)-[1]!SumYellowCells(G5:G9))*0.09</f>
-        <v>108</v>
-      </c>
-      <c r="I13" s="8">
-        <f>(SUM(I5:I9)-[1]!SumYellowCells(I5:I9))*0.09</f>
-        <v>1721.7</v>
-      </c>
-      <c r="K13" s="8">
-        <f>(SUM(K5:K9)-[1]!SumYellowCells(K5:K9))*0.09</f>
-        <v>3433.5</v>
-      </c>
-      <c r="L13" s="8">
-        <f>(SUM(L5:L9)-[1]!SumYellowCells(L5:L9))*0.09</f>
-        <v>6491.7</v>
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6">
+        <f>[1]!SumYellowCells(B5:B7)</f>
+        <v>100</v>
+      </c>
+      <c r="C13" s="6">
+        <f>[1]!SumYellowCells(C5:C7)</f>
+        <v>10</v>
+      </c>
+      <c r="D13" s="6">
+        <f>[1]!SumYellowCells(D5:D7)</f>
+        <v>10</v>
+      </c>
+      <c r="E13" s="6">
+        <f>[1]!SumYellowCells(E5:E7)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <f>[1]!SumYellowCells(F5:F7)</f>
+        <v>1000</v>
+      </c>
+      <c r="G13" s="6">
+        <f>[1]!SumYellowCells(G5:G7)</f>
+        <v>100</v>
+      </c>
+      <c r="H13" s="6">
+        <f>[1]!SumYellowCells(H5:H7)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <f>[1]!SumYellowCells(I5:I7)</f>
+        <v>10</v>
+      </c>
+      <c r="J13" s="6">
+        <f>[1]!SumYellowCells(J5:J7)</f>
+        <v>10</v>
+      </c>
+      <c r="K13" s="6">
+        <f>[1]!SumYellowCells(K5:K7)</f>
+        <v>100</v>
+      </c>
+      <c r="L13" s="6">
+        <f>[1]!SumYellowCells(L5:L7)</f>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8">
-        <f>(SUM(C5:C9)-[1]!SumYellowCells(C5:C9))*0.09</f>
-        <v>801</v>
-      </c>
-      <c r="E14" s="8">
-        <f>(SUM(E5:E9)-[1]!SumYellowCells(E5:E9))*0.09</f>
-        <v>427.5</v>
-      </c>
-      <c r="G14" s="8">
-        <f>(SUM(G5:G9)-[1]!SumYellowCells(G5:G9))*0.09</f>
-        <v>108</v>
-      </c>
-      <c r="I14" s="8">
-        <f>(SUM(I5:I9)-[1]!SumYellowCells(I5:I9))*0.09</f>
-        <v>1721.7</v>
-      </c>
-      <c r="K14" s="8">
-        <f>(SUM(K5:K9)-[1]!SumYellowCells(K5:K9))*0.09</f>
-        <v>3433.5</v>
-      </c>
-      <c r="L14" s="8">
-        <f>(SUM(L5:L9)-[1]!SumYellowCells(L5:L9))*0.09</f>
-        <v>6491.7</v>
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6">
+        <f>([1]!SumYellowCells(C5:C7))*0.18</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="E14" s="6">
+        <f>([1]!SumYellowCells(E5:E7))*0.18</f>
+        <v>0.18</v>
+      </c>
+      <c r="G14" s="6">
+        <f>([1]!SumYellowCells(G5:G7))*0.18</f>
+        <v>18</v>
+      </c>
+      <c r="I14" s="6">
+        <f>([1]!SumYellowCells(I5:I7))*0.18</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="K14" s="6">
+        <f>([1]!SumYellowCells(K5:K7))*0.18</f>
+        <v>18</v>
+      </c>
+      <c r="L14" s="6">
+        <f>([1]!SumYellowCells(L5:L7))*0.18</f>
+        <v>39.78</v>
       </c>
     </row>
   </sheetData>
